--- a/artfynd/A 57244-2025 artfynd.xlsx
+++ b/artfynd/A 57244-2025 artfynd.xlsx
@@ -3066,7 +3066,7 @@
         <v>130609237</v>
       </c>
       <c r="B24" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>130607800</v>
       </c>
       <c r="B25" t="n">
-        <v>80345</v>
+        <v>80349</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>130609563</v>
       </c>
       <c r="B26" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>130608442</v>
       </c>
       <c r="B27" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>130607296</v>
       </c>
       <c r="B28" t="n">
-        <v>79271</v>
+        <v>79275</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>130608573</v>
       </c>
       <c r="B29" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>130607874</v>
       </c>
       <c r="B30" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>130607970</v>
       </c>
       <c r="B31" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>130607960</v>
       </c>
       <c r="B32" t="n">
-        <v>92403</v>
+        <v>92407</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>130608723</v>
       </c>
       <c r="B33" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4138,32 +4138,32 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130609721</v>
+        <v>130608518</v>
       </c>
       <c r="B34" t="n">
-        <v>80345</v>
+        <v>91771</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2081</v>
+        <v>5447</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4173,10 +4173,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>485397</v>
+        <v>485649</v>
       </c>
       <c r="R34" t="n">
-        <v>6939386</v>
+        <v>6939253</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4245,45 +4245,59 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130608518</v>
+        <v>130606943</v>
       </c>
       <c r="B35" t="n">
-        <v>91767</v>
+        <v>58043</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5447</v>
+        <v>103021</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>i par</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Ryflodalen, Ryflodalen, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>485649</v>
+        <v>485317</v>
       </c>
       <c r="R35" t="n">
-        <v>6939253</v>
+        <v>6939367</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4315,7 +4329,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>12:46</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4325,7 +4339,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>12:46</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4352,10 +4366,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130606943</v>
+        <v>130609721</v>
       </c>
       <c r="B36" t="n">
-        <v>58039</v>
+        <v>80349</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4363,48 +4377,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>103021</v>
+        <v>2081</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>i par</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Ryflodalen, Ryflodalen, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>485317</v>
+        <v>485397</v>
       </c>
       <c r="R36" t="n">
-        <v>6939367</v>
+        <v>6939386</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:46</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:46</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AD36" t="b">

--- a/artfynd/A 57244-2025 artfynd.xlsx
+++ b/artfynd/A 57244-2025 artfynd.xlsx
@@ -4245,10 +4245,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130606943</v>
+        <v>130609721</v>
       </c>
       <c r="B35" t="n">
-        <v>58043</v>
+        <v>80349</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4256,48 +4256,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>103021</v>
+        <v>2081</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>i par</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Ryflodalen, Ryflodalen, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>485317</v>
+        <v>485397</v>
       </c>
       <c r="R35" t="n">
-        <v>6939367</v>
+        <v>6939386</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4329,7 +4315,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:46</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4339,7 +4325,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:46</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4366,10 +4352,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130609721</v>
+        <v>130606943</v>
       </c>
       <c r="B36" t="n">
-        <v>80349</v>
+        <v>58043</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4377,34 +4363,48 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2081</v>
+        <v>103021</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>i par</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Ryflodalen, Ryflodalen, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>485397</v>
+        <v>485317</v>
       </c>
       <c r="R36" t="n">
-        <v>6939386</v>
+        <v>6939367</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>12:46</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>12:46</t>
         </is>
       </c>
       <c r="AD36" t="b">

--- a/artfynd/A 57244-2025 artfynd.xlsx
+++ b/artfynd/A 57244-2025 artfynd.xlsx
@@ -4138,45 +4138,59 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130608518</v>
+        <v>130606943</v>
       </c>
       <c r="B34" t="n">
-        <v>91771</v>
+        <v>58043</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5447</v>
+        <v>103021</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>i par</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Ryflodalen, Ryflodalen, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>485649</v>
+        <v>485317</v>
       </c>
       <c r="R34" t="n">
-        <v>6939253</v>
+        <v>6939367</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4208,7 +4222,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>12:46</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4218,7 +4232,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>12:46</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4245,32 +4259,32 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130609721</v>
+        <v>130608518</v>
       </c>
       <c r="B35" t="n">
-        <v>80349</v>
+        <v>91771</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2081</v>
+        <v>5447</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4280,10 +4294,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>485397</v>
+        <v>485649</v>
       </c>
       <c r="R35" t="n">
-        <v>6939386</v>
+        <v>6939253</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4315,7 +4329,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4325,7 +4339,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4352,10 +4366,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130606943</v>
+        <v>130609721</v>
       </c>
       <c r="B36" t="n">
-        <v>58043</v>
+        <v>80349</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4363,48 +4377,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>103021</v>
+        <v>2081</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>i par</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Ryflodalen, Ryflodalen, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>485317</v>
+        <v>485397</v>
       </c>
       <c r="R36" t="n">
-        <v>6939367</v>
+        <v>6939386</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:46</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:46</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AD36" t="b">
